--- a/doc/data.xlsx
+++ b/doc/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota\MyVagrant\ubuntu\mount_folder\lab\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:140008_{B6825DD7-56B4-4567-BEA5-7158AB0C3019}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A375EB92-9CF4-4E48-9B73-092EC84416FC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="2" r:id="rId1"/>
@@ -110,9 +110,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -156,7 +156,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,12 +175,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -383,10 +377,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -395,19 +389,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -416,9 +404,6 @@
     <xf numFmtId="10" fontId="1" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,37 +413,46 @@
     <xf numFmtId="10" fontId="1" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -769,11 +763,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -785,7 +779,14 @@
     <col min="6" max="6" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -867,7 +868,7 @@
         <v>1262816</v>
       </c>
       <c r="J5" s="10">
-        <f>SUM(D5:I5)</f>
+        <f t="shared" ref="J5:J12" si="0">SUM(D5:I5)</f>
         <v>7215549</v>
       </c>
     </row>
@@ -875,471 +876,471 @@
       <c r="B6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="18">
         <v>3870</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="18">
         <v>5550</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="18">
         <v>4151</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="18">
         <v>6270</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="18">
         <v>4353</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="18">
         <v>6938</v>
       </c>
-      <c r="J6" s="23">
-        <f>SUM(D6:I6)</f>
+      <c r="J6" s="19">
+        <f t="shared" si="0"/>
         <v>31132</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="24"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="18">
         <v>1539</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="18">
         <v>2137</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="18">
         <v>1680</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="18">
         <v>2507</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="18">
         <v>1640</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="18">
         <v>2422</v>
       </c>
-      <c r="J7" s="23">
-        <f>SUM(D7:I7)</f>
+      <c r="J7" s="19">
+        <f t="shared" si="0"/>
         <v>11925</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="24"/>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="18">
         <v>268</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="18">
         <v>429</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="18">
         <v>282</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="18">
         <v>438</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="18">
         <v>294</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="18">
         <v>466</v>
       </c>
-      <c r="J8" s="23">
-        <f>SUM(D8:I8)</f>
+      <c r="J8" s="19">
+        <f t="shared" si="0"/>
         <v>2177</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="24"/>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="18">
         <v>440</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="18">
         <v>661</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="18">
         <v>275</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="18">
         <v>410</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="18">
         <v>58</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="18">
         <v>132</v>
       </c>
-      <c r="J9" s="23">
-        <f>SUM(D9:I9)</f>
+      <c r="J9" s="19">
+        <f t="shared" si="0"/>
         <v>1976</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="24"/>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="18">
         <v>24</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="18">
         <v>35</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="18">
         <v>21</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="18">
         <v>28</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="18">
         <v>12</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="18">
         <v>17</v>
       </c>
-      <c r="J10" s="23">
-        <f>SUM(D10:I10)</f>
+      <c r="J10" s="19">
+        <f t="shared" si="0"/>
         <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="24"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="18">
         <v>288</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="18">
         <v>350</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="18">
         <v>413</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="18">
         <v>475</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="18">
         <v>286</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="18">
         <v>353</v>
       </c>
-      <c r="J11" s="23">
-        <f>SUM(D11:I11)</f>
+      <c r="J11" s="19">
+        <f t="shared" si="0"/>
         <v>2165</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="24"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="18">
         <v>3</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="18">
         <v>4</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="18">
         <v>0</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="18">
         <v>6</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="18">
         <v>3</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="18">
         <v>3</v>
       </c>
-      <c r="J12" s="23">
-        <f>SUM(D12:I12)</f>
+      <c r="J12" s="19">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="24"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="22">
-        <f>SUM(D6:D12)</f>
+      <c r="D13" s="18">
+        <f t="shared" ref="D13:J13" si="1">SUM(D6:D12)</f>
         <v>6432</v>
       </c>
-      <c r="E13" s="22">
-        <f>SUM(E6:E12)</f>
+      <c r="E13" s="18">
+        <f t="shared" si="1"/>
         <v>9166</v>
       </c>
-      <c r="F13" s="22">
-        <f>SUM(F6:F12)</f>
+      <c r="F13" s="18">
+        <f t="shared" si="1"/>
         <v>6822</v>
       </c>
-      <c r="G13" s="22">
-        <f>SUM(G6:G12)</f>
+      <c r="G13" s="18">
+        <f t="shared" si="1"/>
         <v>10134</v>
       </c>
-      <c r="H13" s="22">
-        <f>SUM(H6:H12)</f>
+      <c r="H13" s="18">
+        <f t="shared" si="1"/>
         <v>6646</v>
       </c>
-      <c r="I13" s="22">
-        <f>SUM(I6:I12)</f>
+      <c r="I13" s="18">
+        <f t="shared" si="1"/>
         <v>10331</v>
       </c>
-      <c r="J13" s="23">
-        <f>SUM(J6:J12)</f>
+      <c r="J13" s="19">
+        <f t="shared" si="1"/>
         <v>49531</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="14">
-        <f>D6/D4</f>
+      <c r="D14" s="12">
+        <f t="shared" ref="D14:J14" si="2">D6/D4</f>
         <v>0.60167910447761197</v>
       </c>
-      <c r="E14" s="14">
-        <f>E6/E4</f>
+      <c r="E14" s="12">
+        <f t="shared" si="2"/>
         <v>0.60549858171503379</v>
       </c>
-      <c r="F14" s="14">
-        <f>F6/F4</f>
+      <c r="F14" s="12">
+        <f t="shared" si="2"/>
         <v>0.60847258868367049</v>
       </c>
-      <c r="G14" s="14">
-        <f>G6/G4</f>
+      <c r="G14" s="12">
+        <f t="shared" si="2"/>
         <v>0.61870929544108944</v>
       </c>
-      <c r="H14" s="14">
-        <f>H6/H4</f>
+      <c r="H14" s="12">
+        <f t="shared" si="2"/>
         <v>0.65498043936202222</v>
       </c>
-      <c r="I14" s="14">
-        <f>I6/I4</f>
+      <c r="I14" s="12">
+        <f t="shared" si="2"/>
         <v>0.67144101422626534</v>
       </c>
-      <c r="J14" s="15">
-        <f>J6/J4</f>
+      <c r="J14" s="13">
+        <f t="shared" si="2"/>
         <v>0.62851028607191162</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="13"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <f>D7/D4</f>
         <v>0.2392723880597015</v>
       </c>
-      <c r="E15" s="14">
-        <f t="shared" ref="E15:J15" si="0">E7/E4</f>
+      <c r="E15" s="12">
+        <f t="shared" ref="E15:J15" si="3">E7/E4</f>
         <v>0.2331442286711761</v>
       </c>
-      <c r="F15" s="14">
-        <f t="shared" si="0"/>
+      <c r="F15" s="12">
+        <f t="shared" si="3"/>
         <v>0.24626209322779244</v>
       </c>
-      <c r="G15" s="14">
-        <f t="shared" si="0"/>
+      <c r="G15" s="12">
+        <f t="shared" si="3"/>
         <v>0.24738504045786461</v>
       </c>
-      <c r="H15" s="14">
-        <f t="shared" si="0"/>
+      <c r="H15" s="12">
+        <f t="shared" si="3"/>
         <v>0.24676497141137527</v>
       </c>
-      <c r="I15" s="14">
-        <f t="shared" si="0"/>
+      <c r="I15" s="12">
+        <f t="shared" si="3"/>
         <v>0.23439465789219008</v>
       </c>
-      <c r="J15" s="15">
-        <f t="shared" si="0"/>
+      <c r="J15" s="13">
+        <f t="shared" si="3"/>
         <v>0.24074859184785899</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="13"/>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <f>D8/D4</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E16" s="14">
-        <f t="shared" ref="E16:J16" si="1">E8/E4</f>
+      <c r="E16" s="12">
+        <f t="shared" ref="E16:J16" si="4">E8/E4</f>
         <v>4.6803403883918827E-2</v>
       </c>
-      <c r="F16" s="14">
-        <f t="shared" si="1"/>
+      <c r="F16" s="12">
+        <f t="shared" si="4"/>
         <v>4.1336851363236587E-2</v>
       </c>
-      <c r="G16" s="14">
-        <f t="shared" si="1"/>
+      <c r="G16" s="12">
+        <f t="shared" si="4"/>
         <v>4.3220840734162227E-2</v>
       </c>
-      <c r="H16" s="14">
-        <f t="shared" si="1"/>
+      <c r="H16" s="12">
+        <f t="shared" si="4"/>
         <v>4.4237135118868495E-2</v>
       </c>
-      <c r="I16" s="14">
-        <f t="shared" si="1"/>
+      <c r="I16" s="12">
+        <f t="shared" si="4"/>
         <v>4.5098228975128232E-2</v>
       </c>
-      <c r="J16" s="15">
-        <f t="shared" si="1"/>
+      <c r="J16" s="13">
+        <f t="shared" si="4"/>
         <v>4.3950497648032626E-2</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="13"/>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="14">
-        <f>D9/D4</f>
+      <c r="D17" s="12">
+        <f t="shared" ref="D17:J17" si="5">D9/D4</f>
         <v>6.8407960199004969E-2</v>
       </c>
-      <c r="E17" s="14">
-        <f>E9/E4</f>
+      <c r="E17" s="12">
+        <f t="shared" si="5"/>
         <v>7.2114335588042769E-2</v>
       </c>
-      <c r="F17" s="14">
-        <f>F9/F4</f>
+      <c r="F17" s="12">
+        <f t="shared" si="5"/>
         <v>4.0310759308120787E-2</v>
       </c>
-      <c r="G17" s="14">
-        <f>G9/G4</f>
+      <c r="G17" s="12">
+        <f t="shared" si="5"/>
         <v>4.0457864614170121E-2</v>
       </c>
-      <c r="H17" s="14">
-        <f>H9/H4</f>
+      <c r="H17" s="12">
+        <f t="shared" si="5"/>
         <v>8.7270538669876625E-3</v>
       </c>
-      <c r="I17" s="14">
-        <f>I9/I4</f>
+      <c r="I17" s="12">
+        <f t="shared" si="5"/>
         <v>1.2774605632439756E-2</v>
       </c>
-      <c r="J17" s="15">
-        <f>J9/J4</f>
+      <c r="J17" s="13">
+        <f t="shared" si="5"/>
         <v>3.9892596854622174E-2</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="13"/>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <f>D10/D4</f>
         <v>3.7313432835820895E-3</v>
       </c>
-      <c r="E18" s="14">
-        <f t="shared" ref="E18:J18" si="2">E10/E4</f>
+      <c r="E18" s="12">
+        <f t="shared" ref="E18:J18" si="6">E10/E4</f>
         <v>3.8184595243290422E-3</v>
       </c>
-      <c r="F18" s="14">
-        <f t="shared" si="2"/>
+      <c r="F18" s="12">
+        <f t="shared" si="6"/>
         <v>3.0782761653474055E-3</v>
       </c>
-      <c r="G18" s="14">
-        <f t="shared" si="2"/>
+      <c r="G18" s="12">
+        <f t="shared" si="6"/>
         <v>2.762976119992106E-3</v>
       </c>
-      <c r="H18" s="14">
-        <f t="shared" si="2"/>
+      <c r="H18" s="12">
+        <f t="shared" si="6"/>
         <v>1.8055973517905506E-3</v>
       </c>
-      <c r="I18" s="14">
-        <f t="shared" si="2"/>
+      <c r="I18" s="12">
+        <f t="shared" si="6"/>
         <v>1.645214361753605E-3</v>
       </c>
-      <c r="J18" s="15">
-        <f t="shared" si="2"/>
+      <c r="J18" s="13">
+        <f t="shared" si="6"/>
         <v>2.7658328790907071E-3</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="13"/>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <f>D11/D4</f>
         <v>4.4776119402985072E-2</v>
       </c>
-      <c r="E19" s="14">
-        <f t="shared" ref="E19:J19" si="3">E11/E4</f>
+      <c r="E19" s="12">
+        <f t="shared" ref="E19:J19" si="7">E11/E4</f>
         <v>3.8184595243290424E-2</v>
       </c>
-      <c r="F19" s="14">
-        <f t="shared" si="3"/>
+      <c r="F19" s="12">
+        <f t="shared" si="7"/>
         <v>6.053943125183231E-2</v>
       </c>
-      <c r="G19" s="14">
-        <f t="shared" si="3"/>
+      <c r="G19" s="12">
+        <f t="shared" si="7"/>
         <v>4.687191632129465E-2</v>
       </c>
-      <c r="H19" s="14">
-        <f t="shared" si="3"/>
+      <c r="H19" s="12">
+        <f t="shared" si="7"/>
         <v>4.3033403551008126E-2</v>
       </c>
-      <c r="I19" s="14">
-        <f t="shared" si="3"/>
+      <c r="I19" s="12">
+        <f t="shared" si="7"/>
         <v>3.4162392335236623E-2</v>
       </c>
-      <c r="J19" s="15">
-        <f t="shared" si="3"/>
+      <c r="J19" s="13">
+        <f t="shared" si="7"/>
         <v>4.3708234914097671E-2</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="18">
-        <f>D12/D4</f>
+      <c r="D20" s="15">
+        <f t="shared" ref="D20:J20" si="8">D12/D4</f>
         <v>4.6641791044776119E-4</v>
       </c>
-      <c r="E20" s="18">
-        <f>E12/E4</f>
+      <c r="E20" s="15">
+        <f t="shared" si="8"/>
         <v>4.363953742090334E-4</v>
       </c>
-      <c r="F20" s="18">
-        <f>F12/F4</f>
+      <c r="F20" s="15">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G20" s="18">
-        <f>G12/G4</f>
+      <c r="G20" s="15">
+        <f t="shared" si="8"/>
         <v>5.9206631142687976E-4</v>
       </c>
-      <c r="H20" s="18">
-        <f>H12/H4</f>
+      <c r="H20" s="15">
+        <f t="shared" si="8"/>
         <v>4.5139933794763765E-4</v>
       </c>
-      <c r="I20" s="18">
-        <f>I12/I4</f>
+      <c r="I20" s="15">
+        <f t="shared" si="8"/>
         <v>2.9033194619181263E-4</v>
       </c>
-      <c r="J20" s="19">
-        <f>J12/J4</f>
+      <c r="J20" s="16">
+        <f t="shared" si="8"/>
         <v>3.835826620636747E-4</v>
       </c>
     </row>
